--- a/P11-paper.xlsx
+++ b/P11-paper.xlsx
@@ -66,16 +66,16 @@
         <v>10.0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.1907112271010762</v>
+        <v>-0.19071122710303728</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.6410087244209319</v>
+        <v>-0.6410087243828262</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.21167872246962155</v>
+        <v>-0.21167872247090277</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.6939535861932854</v>
+        <v>-0.6939535864452641</v>
       </c>
     </row>
     <row r="2">
@@ -83,16 +83,16 @@
         <v>20.0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.590684202387556</v>
+        <v>-0.5906842023484677</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.24095178221109087</v>
+        <v>-0.24095177899917045</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.634248298954685</v>
+        <v>-0.6342482988990767</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.27277602123934763</v>
+        <v>-0.27277601769925075</v>
       </c>
     </row>
     <row r="3">
@@ -100,16 +100,16 @@
         <v>40.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2853746372654596</v>
+        <v>0.28537479205002964</v>
       </c>
       <c r="C3" t="n">
-        <v>0.31297097307415195</v>
+        <v>0.3129709256324884</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29649940248136014</v>
+        <v>0.2964995746356674</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3329120621443133</v>
+        <v>0.33291197161421593</v>
       </c>
     </row>
     <row r="4">
@@ -117,16 +117,16 @@
         <v>60.0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.314504639982506</v>
+        <v>-0.3145040532223571</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4794556332082434</v>
+        <v>-0.4794547105844818</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.33143491129401226</v>
+        <v>-0.3314342678670049</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5157286176187392</v>
+        <v>-0.515727566859127</v>
       </c>
     </row>
     <row r="5">
@@ -134,16 +134,16 @@
         <v>100.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08361396557678853</v>
+        <v>-0.083613696345354</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6042111359853378</v>
+        <v>-0.6042108816361511</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.084067236569207</v>
+        <v>-0.08406693980514293</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6430015110139723</v>
+        <v>-0.6430012167391901</v>
       </c>
     </row>
   </sheetData>
